--- a/output/estat-desc-xco2.xlsx
+++ b/output/estat-desc-xco2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,50 +365,55 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>MIN</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>MEAN</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>MEDIAN</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>MAX</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>VARIANCIA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>STD_DV</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>CV</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>SKW</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>KRT</t>
         </is>
@@ -418,210 +423,1200 @@
       <c r="A2">
         <v>2015</v>
       </c>
-      <c r="B2">
-        <v>35149</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
       </c>
       <c r="C2">
-        <v>392.5871887207031</v>
+        <v>12402</v>
       </c>
       <c r="D2">
-        <v>399.2662269236092</v>
+        <v>393.2996520996094</v>
       </c>
       <c r="E2">
-        <v>399.2116088867188</v>
+        <v>398.9232358078941</v>
       </c>
       <c r="F2">
-        <v>405.8144226074219</v>
+        <v>398.9433746337891</v>
       </c>
       <c r="G2">
-        <v>1.738254986768002</v>
+        <v>405.4674987792969</v>
       </c>
       <c r="H2">
-        <v>1.31842898434766</v>
+        <v>2.139899125300313</v>
       </c>
       <c r="I2">
-        <v>0.3302129996083822</v>
+        <v>1.462839405163914</v>
       </c>
       <c r="J2">
-        <v>0.03001956325358345</v>
+        <v>0.3666969666987159</v>
       </c>
       <c r="K2">
-        <v>1.10845482889802</v>
+        <v>-0.1686960358540144</v>
+      </c>
+      <c r="L2">
+        <v>0.8019487797666405</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2016</v>
-      </c>
-      <c r="B3">
-        <v>39409</v>
+        <v>2015</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
       </c>
       <c r="C3">
-        <v>394.9057312011719</v>
+        <v>17257</v>
       </c>
       <c r="D3">
-        <v>402.6685755479284</v>
+        <v>390.4903869628906</v>
       </c>
       <c r="E3">
-        <v>402.7116394042969</v>
+        <v>398.8392359608742</v>
       </c>
       <c r="F3">
-        <v>409.5428771972656</v>
+        <v>398.9369812011719</v>
       </c>
       <c r="G3">
-        <v>2.039650459399226</v>
+        <v>405.084228515625</v>
       </c>
       <c r="H3">
-        <v>1.428163316781112</v>
+        <v>1.676896258468428</v>
       </c>
       <c r="I3">
-        <v>0.3546746390223644</v>
+        <v>1.294950291890939</v>
       </c>
       <c r="J3">
-        <v>-0.3015932407849923</v>
+        <v>0.3246797644597766</v>
       </c>
       <c r="K3">
-        <v>0.907785586289938</v>
+        <v>-0.5615060844269942</v>
+      </c>
+      <c r="L3">
+        <v>1.664343421414714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2017</v>
-      </c>
-      <c r="B4">
-        <v>34348</v>
+        <v>2015</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
       </c>
       <c r="C4">
-        <v>397.0730285644531</v>
+        <v>7532</v>
       </c>
       <c r="D4">
-        <v>404.3184255358086</v>
+        <v>391.4580993652344</v>
       </c>
       <c r="E4">
-        <v>404.30908203125</v>
+        <v>398.3558804050634</v>
       </c>
       <c r="F4">
-        <v>411.013427734375</v>
+        <v>398.4263610839844</v>
       </c>
       <c r="G4">
-        <v>1.849371237372615</v>
+        <v>406.0537109375</v>
       </c>
       <c r="H4">
-        <v>1.359915893492173</v>
+        <v>1.678576282847227</v>
       </c>
       <c r="I4">
-        <v>0.3363477416815701</v>
+        <v>1.295598812459794</v>
       </c>
       <c r="J4">
-        <v>-0.09560003896192414</v>
+        <v>0.3252365224638782</v>
       </c>
       <c r="K4">
-        <v>0.9212056501120842</v>
+        <v>-0.2709511114424896</v>
+      </c>
+      <c r="L4">
+        <v>0.8475264618619009</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2018</v>
-      </c>
-      <c r="B5">
-        <v>35245</v>
+        <v>2015</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
       </c>
       <c r="C5">
-        <v>398.4675903320313</v>
+        <v>21398</v>
       </c>
       <c r="D5">
-        <v>406.6112268970374</v>
+        <v>392.5871887207031</v>
       </c>
       <c r="E5">
-        <v>406.6409912109375</v>
+        <v>398.9862559399033</v>
       </c>
       <c r="F5">
-        <v>412.8694763183594</v>
+        <v>398.9661865234375</v>
       </c>
       <c r="G5">
-        <v>1.893782431681267</v>
+        <v>404.2690124511719</v>
       </c>
       <c r="H5">
-        <v>1.376147678005986</v>
+        <v>1.635307350775039</v>
       </c>
       <c r="I5">
-        <v>0.3384431090375318</v>
+        <v>1.278791363270428</v>
       </c>
       <c r="J5">
-        <v>-0.2226258747862529</v>
+        <v>0.3205101289160807</v>
       </c>
       <c r="K5">
-        <v>0.88303188438893</v>
+        <v>-0.119006017241399</v>
+      </c>
+      <c r="L5">
+        <v>1.272127308448862</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2019</v>
-      </c>
-      <c r="B6">
-        <v>24993</v>
+        <v>2015</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
       </c>
       <c r="C6">
-        <v>401.2647094726563</v>
+        <v>13737</v>
       </c>
       <c r="D6">
-        <v>409.5335546357765</v>
+        <v>394.0390930175781</v>
       </c>
       <c r="E6">
-        <v>409.6073303222656</v>
+        <v>399.7022797672771</v>
       </c>
       <c r="F6">
-        <v>416.7773742675781</v>
+        <v>399.6176147460938</v>
       </c>
       <c r="G6">
-        <v>2.563245004705621</v>
+        <v>405.8144226074219</v>
       </c>
       <c r="H6">
-        <v>1.601013742822222</v>
+        <v>1.587767929883781</v>
       </c>
       <c r="I6">
-        <v>0.3909359134799352</v>
+        <v>1.260066637080667</v>
       </c>
       <c r="J6">
-        <v>-0.4417364243742972</v>
+        <v>0.3152513009969142</v>
       </c>
       <c r="K6">
-        <v>1.315220678007549</v>
+        <v>0.2885322732980861</v>
+      </c>
+      <c r="L6">
+        <v>0.7579770827111951</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>2016</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>14497</v>
+      </c>
+      <c r="D7">
+        <v>394.3099975585938</v>
+      </c>
+      <c r="E7">
+        <v>402.2568704989677</v>
+      </c>
+      <c r="F7">
+        <v>402.3330993652344</v>
+      </c>
+      <c r="G7">
+        <v>409.4591674804688</v>
+      </c>
+      <c r="H7">
+        <v>1.924261814594852</v>
+      </c>
+      <c r="I7">
+        <v>1.387177643488696</v>
+      </c>
+      <c r="J7">
+        <v>0.3448487136510589</v>
+      </c>
+      <c r="K7">
+        <v>-0.1123630459413932</v>
+      </c>
+      <c r="L7">
+        <v>0.7697158807379352</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>15295</v>
+      </c>
+      <c r="D8">
+        <v>394.761962890625</v>
+      </c>
+      <c r="E8">
+        <v>401.8943253147091</v>
+      </c>
+      <c r="F8">
+        <v>401.9275512695313</v>
+      </c>
+      <c r="G8">
+        <v>408.1458740234375</v>
+      </c>
+      <c r="H8">
+        <v>1.402522386618545</v>
+      </c>
+      <c r="I8">
+        <v>1.184281379832743</v>
+      </c>
+      <c r="J8">
+        <v>0.2946748200302092</v>
+      </c>
+      <c r="K8">
+        <v>-0.03678534120224558</v>
+      </c>
+      <c r="L8">
+        <v>0.9115449187537847</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>2016</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>14294</v>
+      </c>
+      <c r="D9">
+        <v>395.2037353515625</v>
+      </c>
+      <c r="E9">
+        <v>401.4591725105103</v>
+      </c>
+      <c r="F9">
+        <v>401.4323272705078</v>
+      </c>
+      <c r="G9">
+        <v>407.7927856445313</v>
+      </c>
+      <c r="H9">
+        <v>1.927282739691152</v>
+      </c>
+      <c r="I9">
+        <v>1.388266091097507</v>
+      </c>
+      <c r="J9">
+        <v>0.3458050497180163</v>
+      </c>
+      <c r="K9">
+        <v>0.05805841013780495</v>
+      </c>
+      <c r="L9">
+        <v>0.2762620799697992</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>2016</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>27134</v>
+      </c>
+      <c r="D10">
+        <v>394.9057312011719</v>
+      </c>
+      <c r="E10">
+        <v>402.429167703564</v>
+      </c>
+      <c r="F10">
+        <v>402.5145416259766</v>
+      </c>
+      <c r="G10">
+        <v>408.3404235839844</v>
+      </c>
+      <c r="H10">
+        <v>2.046745930288326</v>
+      </c>
+      <c r="I10">
+        <v>1.430645284579069</v>
+      </c>
+      <c r="J10">
+        <v>0.3555023838711677</v>
+      </c>
+      <c r="K10">
+        <v>-0.3360753481816776</v>
+      </c>
+      <c r="L10">
+        <v>0.9443711005117716</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2016</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>12270</v>
+      </c>
+      <c r="D11">
+        <v>397.2981872558594</v>
+      </c>
+      <c r="E11">
+        <v>403.1978086463785</v>
+      </c>
+      <c r="F11">
+        <v>403.1952667236328</v>
+      </c>
+      <c r="G11">
+        <v>409.5428771972656</v>
+      </c>
+      <c r="H11">
+        <v>1.617497421395504</v>
+      </c>
+      <c r="I11">
+        <v>1.271808720443253</v>
+      </c>
+      <c r="J11">
+        <v>0.3154304644444838</v>
+      </c>
+      <c r="K11">
+        <v>-0.03960743379101619</v>
+      </c>
+      <c r="L11">
+        <v>0.5945296954929522</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>2017</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>8862</v>
+      </c>
+      <c r="D12">
+        <v>397.3831787109375</v>
+      </c>
+      <c r="E12">
+        <v>404.0179888519308</v>
+      </c>
+      <c r="F12">
+        <v>404.0206604003906</v>
+      </c>
+      <c r="G12">
+        <v>411.6748046875</v>
+      </c>
+      <c r="H12">
+        <v>1.642559298124903</v>
+      </c>
+      <c r="I12">
+        <v>1.281623695990716</v>
+      </c>
+      <c r="J12">
+        <v>0.3172194633294955</v>
+      </c>
+      <c r="K12">
+        <v>0.2656912904095874</v>
+      </c>
+      <c r="L12">
+        <v>1.999953672167659</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2017</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>10471</v>
+      </c>
+      <c r="D13">
+        <v>396.1579284667969</v>
+      </c>
+      <c r="E13">
+        <v>403.538250556387</v>
+      </c>
+      <c r="F13">
+        <v>403.6568908691406</v>
+      </c>
+      <c r="G13">
+        <v>409.958740234375</v>
+      </c>
+      <c r="H13">
+        <v>2.130857515800354</v>
+      </c>
+      <c r="I13">
+        <v>1.459745702442845</v>
+      </c>
+      <c r="J13">
+        <v>0.3617366384550136</v>
+      </c>
+      <c r="K13">
+        <v>-0.1788863000941815</v>
+      </c>
+      <c r="L13">
+        <v>0.2410609442068394</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>2017</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>8973</v>
+      </c>
+      <c r="D14">
+        <v>396.9772338867188</v>
+      </c>
+      <c r="E14">
+        <v>403.0964849470558</v>
+      </c>
+      <c r="F14">
+        <v>403.2082214355469</v>
+      </c>
+      <c r="G14">
+        <v>409.05126953125</v>
+      </c>
+      <c r="H14">
+        <v>2.151416471592636</v>
+      </c>
+      <c r="I14">
+        <v>1.466770763136706</v>
+      </c>
+      <c r="J14">
+        <v>0.3638758505496166</v>
+      </c>
+      <c r="K14">
+        <v>-0.2132559568913349</v>
+      </c>
+      <c r="L14">
+        <v>0.3110035507878774</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2017</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>20962</v>
+      </c>
+      <c r="D15">
+        <v>397.0730285644531</v>
+      </c>
+      <c r="E15">
+        <v>404.0637993395368</v>
+      </c>
+      <c r="F15">
+        <v>404.0904235839844</v>
+      </c>
+      <c r="G15">
+        <v>410.5281372070313</v>
+      </c>
+      <c r="H15">
+        <v>1.826063824548329</v>
+      </c>
+      <c r="I15">
+        <v>1.351319290378232</v>
+      </c>
+      <c r="J15">
+        <v>0.3344321596210879</v>
+      </c>
+      <c r="K15">
+        <v>-0.2022083704404954</v>
+      </c>
+      <c r="L15">
+        <v>1.039979759816197</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>13384</v>
+      </c>
+      <c r="D16">
+        <v>398.6405639648438</v>
+      </c>
+      <c r="E16">
+        <v>404.7165470522318</v>
+      </c>
+      <c r="F16">
+        <v>404.6548461914063</v>
+      </c>
+      <c r="G16">
+        <v>411.013427734375</v>
+      </c>
+      <c r="H16">
+        <v>1.623179546080885</v>
+      </c>
+      <c r="I16">
+        <v>1.274040637531191</v>
+      </c>
+      <c r="J16">
+        <v>0.3147982574003249</v>
+      </c>
+      <c r="K16">
+        <v>0.1738118420263694</v>
+      </c>
+      <c r="L16">
+        <v>0.4930980201617272</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>2018</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>12582</v>
+      </c>
+      <c r="D17">
+        <v>398.5687561035156</v>
+      </c>
+      <c r="E17">
+        <v>406.1778782383851</v>
+      </c>
+      <c r="F17">
+        <v>406.3043365478516</v>
+      </c>
+      <c r="G17">
+        <v>412.3593139648438</v>
+      </c>
+      <c r="H17">
+        <v>1.906164678912099</v>
+      </c>
+      <c r="I17">
+        <v>1.380639228369272</v>
+      </c>
+      <c r="J17">
+        <v>0.3399100006029814</v>
+      </c>
+      <c r="K17">
+        <v>-0.5337360370023955</v>
+      </c>
+      <c r="L17">
+        <v>1.584909959036459</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>2018</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>14963</v>
+      </c>
+      <c r="D18">
+        <v>399.1511535644531</v>
+      </c>
+      <c r="E18">
+        <v>405.9043112904409</v>
+      </c>
+      <c r="F18">
+        <v>405.9578552246094</v>
+      </c>
+      <c r="G18">
+        <v>412.3930053710938</v>
+      </c>
+      <c r="H18">
+        <v>2.071852844079961</v>
+      </c>
+      <c r="I18">
+        <v>1.43939322079825</v>
+      </c>
+      <c r="J18">
+        <v>0.3546139276575229</v>
+      </c>
+      <c r="K18">
+        <v>-0.1448362134924289</v>
+      </c>
+      <c r="L18">
+        <v>0.6556582720239943</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>2018</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>7476</v>
+      </c>
+      <c r="D19">
+        <v>397.4360656738281</v>
+      </c>
+      <c r="E19">
+        <v>405.3389118861999</v>
+      </c>
+      <c r="F19">
+        <v>405.3864593505859</v>
+      </c>
+      <c r="G19">
+        <v>411.7113342285156</v>
+      </c>
+      <c r="H19">
+        <v>2.582349442527854</v>
+      </c>
+      <c r="I19">
+        <v>1.606969023512231</v>
+      </c>
+      <c r="J19">
+        <v>0.3964507172613599</v>
+      </c>
+      <c r="K19">
+        <v>-0.0718341818233115</v>
+      </c>
+      <c r="L19">
+        <v>0.04865466178734046</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>22441</v>
+      </c>
+      <c r="D20">
+        <v>398.4675903320313</v>
+      </c>
+      <c r="E20">
+        <v>406.315399265115</v>
+      </c>
+      <c r="F20">
+        <v>406.3712768554688</v>
+      </c>
+      <c r="G20">
+        <v>412.0833129882813</v>
+      </c>
+      <c r="H20">
+        <v>1.902037067430038</v>
+      </c>
+      <c r="I20">
+        <v>1.379143599278204</v>
+      </c>
+      <c r="J20">
+        <v>0.3394268594723707</v>
+      </c>
+      <c r="K20">
+        <v>-0.2613543212994234</v>
+      </c>
+      <c r="L20">
+        <v>0.7278396042430959</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>12783</v>
+      </c>
+      <c r="D21">
+        <v>400.1328125</v>
+      </c>
+      <c r="E21">
+        <v>407.1295402793643</v>
+      </c>
+      <c r="F21">
+        <v>407.0805969238281</v>
+      </c>
+      <c r="G21">
+        <v>412.8694763183594</v>
+      </c>
+      <c r="H21">
+        <v>1.458022987116423</v>
+      </c>
+      <c r="I21">
+        <v>1.207486226470688</v>
+      </c>
+      <c r="J21">
+        <v>0.2965852651326001</v>
+      </c>
+      <c r="K21">
+        <v>0.1156217092320111</v>
+      </c>
+      <c r="L21">
+        <v>1.084550647405278</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>10797</v>
+      </c>
+      <c r="D22">
+        <v>401.9984130859375</v>
+      </c>
+      <c r="E22">
+        <v>408.8346308321051</v>
+      </c>
+      <c r="F22">
+        <v>408.9322509765625</v>
+      </c>
+      <c r="G22">
+        <v>416.2995300292969</v>
+      </c>
+      <c r="H22">
+        <v>2.452241739993066</v>
+      </c>
+      <c r="I22">
+        <v>1.565963518091359</v>
+      </c>
+      <c r="J22">
+        <v>0.3830310350432247</v>
+      </c>
+      <c r="K22">
+        <v>-0.3872823134757487</v>
+      </c>
+      <c r="L22">
+        <v>1.536864144119347</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>2019</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>13506</v>
+      </c>
+      <c r="D23">
+        <v>401.9019470214844</v>
+      </c>
+      <c r="E23">
+        <v>408.6547521170062</v>
+      </c>
+      <c r="F23">
+        <v>408.6984252929688</v>
+      </c>
+      <c r="G23">
+        <v>414.9678649902344</v>
+      </c>
+      <c r="H23">
+        <v>2.329896338904515</v>
+      </c>
+      <c r="I23">
+        <v>1.526399796548897</v>
+      </c>
+      <c r="J23">
+        <v>0.3735181809685301</v>
+      </c>
+      <c r="K23">
+        <v>-0.02547940102565249</v>
+      </c>
+      <c r="L23">
+        <v>0.4433247900771411</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>2019</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>8270</v>
+      </c>
+      <c r="D24">
+        <v>402.0341491699219</v>
+      </c>
+      <c r="E24">
+        <v>408.5801246283276</v>
+      </c>
+      <c r="F24">
+        <v>408.7074432373047</v>
+      </c>
+      <c r="G24">
+        <v>415.1697387695313</v>
+      </c>
+      <c r="H24">
+        <v>2.817736419551062</v>
+      </c>
+      <c r="I24">
+        <v>1.678611455802403</v>
+      </c>
+      <c r="J24">
+        <v>0.4108402133680346</v>
+      </c>
+      <c r="K24">
+        <v>-0.1831721875028976</v>
+      </c>
+      <c r="L24">
+        <v>0.8796695412185893</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>2019</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>17345</v>
+      </c>
+      <c r="D25">
+        <v>401.2647094726563</v>
+      </c>
+      <c r="E25">
+        <v>409.2458241255698</v>
+      </c>
+      <c r="F25">
+        <v>409.3456115722656</v>
+      </c>
+      <c r="G25">
+        <v>416.7773742675781</v>
+      </c>
+      <c r="H25">
+        <v>2.741978186211733</v>
+      </c>
+      <c r="I25">
+        <v>1.655891960911621</v>
+      </c>
+      <c r="J25">
+        <v>0.4046203683201273</v>
+      </c>
+      <c r="K25">
+        <v>-0.3923947735697733</v>
+      </c>
+      <c r="L25">
+        <v>1.168910132663903</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>2019</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>7646</v>
+      </c>
+      <c r="D26">
+        <v>403.7942199707031</v>
+      </c>
+      <c r="E26">
+        <v>410.1856449255917</v>
+      </c>
+      <c r="F26">
+        <v>410.1470794677734</v>
+      </c>
+      <c r="G26">
+        <v>415.5588073730469</v>
+      </c>
+      <c r="H26">
+        <v>1.544124050572817</v>
+      </c>
+      <c r="I26">
+        <v>1.242627880973551</v>
+      </c>
+      <c r="J26">
+        <v>0.3029428007406171</v>
+      </c>
+      <c r="K26">
+        <v>0.1238877872175948</v>
+      </c>
+      <c r="L26">
+        <v>0.8059546523821695</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>2020</v>
       </c>
-      <c r="B7">
-        <v>33283</v>
-      </c>
-      <c r="C7">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>13266</v>
+      </c>
+      <c r="D27">
+        <v>405.22607421875</v>
+      </c>
+      <c r="E27">
+        <v>410.9890267521516</v>
+      </c>
+      <c r="F27">
+        <v>410.9436950683594</v>
+      </c>
+      <c r="G27">
+        <v>416.8045349121094</v>
+      </c>
+      <c r="H27">
+        <v>1.854593203293101</v>
+      </c>
+      <c r="I27">
+        <v>1.361834499230028</v>
+      </c>
+      <c r="J27">
+        <v>0.3313554403123486</v>
+      </c>
+      <c r="K27">
+        <v>0.08533500314030823</v>
+      </c>
+      <c r="L27">
+        <v>0.4329278630243492</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>2020</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>11696</v>
+      </c>
+      <c r="D28">
+        <v>404.3671569824219</v>
+      </c>
+      <c r="E28">
+        <v>411.0243109352122</v>
+      </c>
+      <c r="F28">
+        <v>411.0245971679688</v>
+      </c>
+      <c r="G28">
+        <v>418.5875549316406</v>
+      </c>
+      <c r="H28">
+        <v>1.889287444894484</v>
+      </c>
+      <c r="I28">
+        <v>1.374513530269704</v>
+      </c>
+      <c r="J28">
+        <v>0.3344117351945057</v>
+      </c>
+      <c r="K28">
+        <v>0.04942241723208682</v>
+      </c>
+      <c r="L28">
+        <v>0.9135566669499111</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>2020</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>9529</v>
+      </c>
+      <c r="D29">
+        <v>403.2841491699219</v>
+      </c>
+      <c r="E29">
+        <v>410.3804485358275</v>
+      </c>
+      <c r="F29">
+        <v>410.4186096191406</v>
+      </c>
+      <c r="G29">
+        <v>416.839111328125</v>
+      </c>
+      <c r="H29">
+        <v>2.380900538606311</v>
+      </c>
+      <c r="I29">
+        <v>1.543016700689371</v>
+      </c>
+      <c r="J29">
+        <v>0.3759966407256023</v>
+      </c>
+      <c r="K29">
+        <v>0.02826931538881457</v>
+      </c>
+      <c r="L29">
+        <v>0.3856642176067333</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>2020</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>20767</v>
+      </c>
+      <c r="D30">
+        <v>400.7119750976563</v>
+      </c>
+      <c r="E30">
+        <v>411.1681908345586</v>
+      </c>
+      <c r="F30">
+        <v>411.2101440429688</v>
+      </c>
+      <c r="G30">
+        <v>419.3778076171875</v>
+      </c>
+      <c r="H30">
+        <v>1.750616669495701</v>
+      </c>
+      <c r="I30">
+        <v>1.323108714163618</v>
+      </c>
+      <c r="J30">
+        <v>0.3217925762880805</v>
+      </c>
+      <c r="K30">
+        <v>-0.2099098810584707</v>
+      </c>
+      <c r="L30">
+        <v>1.385940466977932</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>2020</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>12490</v>
+      </c>
+      <c r="D31">
         <v>399.4169616699219</v>
       </c>
-      <c r="D7">
-        <v>411.424350785861</v>
-      </c>
-      <c r="E7">
-        <v>411.4341735839844</v>
-      </c>
-      <c r="F7">
-        <v>419.3778076171875</v>
-      </c>
-      <c r="G7">
-        <v>1.814398819104155</v>
-      </c>
-      <c r="H7">
-        <v>1.346996220894533</v>
-      </c>
-      <c r="I7">
-        <v>0.3273982734180994</v>
-      </c>
-      <c r="J7">
-        <v>-0.1462362262734805</v>
-      </c>
-      <c r="K7">
-        <v>1.369044174080208</v>
+      <c r="E31">
+        <v>411.8469903755035</v>
+      </c>
+      <c r="F31">
+        <v>411.7949676513672</v>
+      </c>
+      <c r="G31">
+        <v>417.6399230957031</v>
+      </c>
+      <c r="H31">
+        <v>1.629045245048201</v>
+      </c>
+      <c r="I31">
+        <v>1.276340567814171</v>
+      </c>
+      <c r="J31">
+        <v>0.3099064938292887</v>
+      </c>
+      <c r="K31">
+        <v>-0.01974514785461591</v>
+      </c>
+      <c r="L31">
+        <v>1.608718543401242</v>
       </c>
     </row>
   </sheetData>

--- a/output/estat-desc-xco2.xlsx
+++ b/output/estat-desc-xco2.xlsx
@@ -429,34 +429,34 @@
         </is>
       </c>
       <c r="C2">
-        <v>12402</v>
+        <v>12548</v>
       </c>
       <c r="D2">
         <v>393.2996520996094</v>
       </c>
       <c r="E2">
-        <v>398.9232358078941</v>
+        <v>398.9145028330469</v>
       </c>
       <c r="F2">
-        <v>398.9433746337891</v>
+        <v>398.9312744140625</v>
       </c>
       <c r="G2">
         <v>405.4674987792969</v>
       </c>
       <c r="H2">
-        <v>2.139899125300313</v>
+        <v>2.132369496561104</v>
       </c>
       <c r="I2">
-        <v>1.462839405163914</v>
+        <v>1.460263502440948</v>
       </c>
       <c r="J2">
-        <v>0.3666969666987159</v>
+        <v>0.366059266351641</v>
       </c>
       <c r="K2">
-        <v>-0.1686960358540144</v>
+        <v>-0.1592442942796279</v>
       </c>
       <c r="L2">
-        <v>0.8019487797666405</v>
+        <v>0.7963502066840924</v>
       </c>
     </row>
     <row r="3">
@@ -629,34 +629,34 @@
         </is>
       </c>
       <c r="C7">
-        <v>14497</v>
+        <v>14714</v>
       </c>
       <c r="D7">
         <v>394.3099975585938</v>
       </c>
       <c r="E7">
-        <v>402.2568704989677</v>
+        <v>402.2692439815702</v>
       </c>
       <c r="F7">
-        <v>402.3330993652344</v>
+        <v>402.34423828125</v>
       </c>
       <c r="G7">
         <v>409.4591674804688</v>
       </c>
       <c r="H7">
-        <v>1.924261814594852</v>
+        <v>1.935110439601139</v>
       </c>
       <c r="I7">
-        <v>1.387177643488696</v>
+        <v>1.391082470452827</v>
       </c>
       <c r="J7">
-        <v>0.3448487136510589</v>
+        <v>0.3458088062324144</v>
       </c>
       <c r="K7">
-        <v>-0.1123630459413932</v>
+        <v>-0.1066689038923072</v>
       </c>
       <c r="L7">
-        <v>0.7697158807379352</v>
+        <v>0.7729680457828501</v>
       </c>
     </row>
     <row r="8">
@@ -829,34 +829,34 @@
         </is>
       </c>
       <c r="C12">
-        <v>8862</v>
+        <v>8879</v>
       </c>
       <c r="D12">
         <v>397.3831787109375</v>
       </c>
       <c r="E12">
-        <v>404.0179888519308</v>
+        <v>404.0198314970497</v>
       </c>
       <c r="F12">
-        <v>404.0206604003906</v>
+        <v>404.0214538574219</v>
       </c>
       <c r="G12">
         <v>411.6748046875</v>
       </c>
       <c r="H12">
-        <v>1.642559298124903</v>
+        <v>1.645235531872815</v>
       </c>
       <c r="I12">
-        <v>1.281623695990716</v>
+        <v>1.28266735043534</v>
       </c>
       <c r="J12">
-        <v>0.3172194633294955</v>
+        <v>0.3174763341894781</v>
       </c>
       <c r="K12">
-        <v>0.2656912904095874</v>
+        <v>0.2639047614576369</v>
       </c>
       <c r="L12">
-        <v>1.999953672167659</v>
+        <v>1.982068610517871</v>
       </c>
     </row>
     <row r="13">
@@ -1029,34 +1029,34 @@
         </is>
       </c>
       <c r="C17">
-        <v>12582</v>
+        <v>12952</v>
       </c>
       <c r="D17">
         <v>398.5687561035156</v>
       </c>
       <c r="E17">
-        <v>406.1778782383851</v>
+        <v>406.1755092778715</v>
       </c>
       <c r="F17">
-        <v>406.3043365478516</v>
+        <v>406.2969665527344</v>
       </c>
       <c r="G17">
         <v>412.3593139648438</v>
       </c>
       <c r="H17">
-        <v>1.906164678912099</v>
+        <v>1.87967308393604</v>
       </c>
       <c r="I17">
-        <v>1.380639228369272</v>
+        <v>1.371011700874956</v>
       </c>
       <c r="J17">
-        <v>0.3399100006029814</v>
+        <v>0.3375416955375869</v>
       </c>
       <c r="K17">
-        <v>-0.5337360370023955</v>
+        <v>-0.5283813453827979</v>
       </c>
       <c r="L17">
-        <v>1.584909959036459</v>
+        <v>1.614059594151295</v>
       </c>
     </row>
     <row r="18">
@@ -1229,34 +1229,34 @@
         </is>
       </c>
       <c r="C22">
-        <v>10797</v>
+        <v>11189</v>
       </c>
       <c r="D22">
         <v>401.9984130859375</v>
       </c>
       <c r="E22">
-        <v>408.8346308321051</v>
+        <v>408.8485073219495</v>
       </c>
       <c r="F22">
-        <v>408.9322509765625</v>
+        <v>408.9463195800781</v>
       </c>
       <c r="G22">
         <v>416.2995300292969</v>
       </c>
       <c r="H22">
-        <v>2.452241739993066</v>
+        <v>2.421529258660425</v>
       </c>
       <c r="I22">
-        <v>1.565963518091359</v>
+        <v>1.556126363333141</v>
       </c>
       <c r="J22">
-        <v>0.3830310350432247</v>
+        <v>0.3806119712961951</v>
       </c>
       <c r="K22">
-        <v>-0.3872823134757487</v>
+        <v>-0.3847638769677218</v>
       </c>
       <c r="L22">
-        <v>1.536864144119347</v>
+        <v>1.605163876050673</v>
       </c>
     </row>
     <row r="23">
@@ -1429,34 +1429,34 @@
         </is>
       </c>
       <c r="C27">
-        <v>13266</v>
+        <v>13658</v>
       </c>
       <c r="D27">
         <v>405.22607421875</v>
       </c>
       <c r="E27">
-        <v>410.9890267521516</v>
+        <v>410.9726019404192</v>
       </c>
       <c r="F27">
-        <v>410.9436950683594</v>
+        <v>410.9277038574219</v>
       </c>
       <c r="G27">
         <v>416.8045349121094</v>
       </c>
       <c r="H27">
-        <v>1.854593203293101</v>
+        <v>1.861093948299786</v>
       </c>
       <c r="I27">
-        <v>1.361834499230028</v>
+        <v>1.36421917165087</v>
       </c>
       <c r="J27">
-        <v>0.3313554403123486</v>
+        <v>0.3319489341162085</v>
       </c>
       <c r="K27">
-        <v>0.08533500314030823</v>
+        <v>0.08328362086594324</v>
       </c>
       <c r="L27">
-        <v>0.4329278630243492</v>
+        <v>0.4182223542257963</v>
       </c>
     </row>
     <row r="28">
